--- a/pandas_study/data/summary.xlsx
+++ b/pandas_study/data/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" tabRatio="735" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="18468" windowHeight="9420" tabRatio="735" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="pie" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="student" sheetId="9" r:id="rId9"/>
     <sheet name="score" sheetId="10" r:id="rId10"/>
     <sheet name="checkout" sheetId="11" r:id="rId11"/>
+    <sheet name="split name" sheetId="12" r:id="rId12"/>
+    <sheet name="average" sheetId="13" r:id="rId13"/>
+    <sheet name="duplicated" sheetId="14" r:id="rId14"/>
+    <sheet name="transform" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">filter!$A$1:$D$21</definedName>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="158">
   <si>
     <t>Field</t>
   </si>
@@ -431,6 +435,114 @@
   </si>
   <si>
     <t>student_20</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>Abbas</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Aber</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Abo</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Test_1</t>
+  </si>
+  <si>
+    <t>Test_2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>student_002</t>
+  </si>
+  <si>
+    <t>student_004</t>
+  </si>
+  <si>
+    <t>student_006</t>
+  </si>
+  <si>
+    <t>student_008</t>
+  </si>
+  <si>
+    <t>student_010</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Active User</t>
+  </si>
+  <si>
+    <t>Page View</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
@@ -440,8 +552,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -460,12 +572,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -474,10 +609,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,8 +624,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,52 +685,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,31 +709,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,12 +726,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -629,19 +747,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +777,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,31 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,43 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,19 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +891,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,19 +903,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,17 +941,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,15 +996,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,17 +1017,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -891,31 +1024,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -926,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,142 +1056,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7965,32 +8085,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="6">
         <v>2016</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>216932</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>230711</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>200312</v>
       </c>
       <c r="C3">
@@ -7998,65 +8118,65 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>141651</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>167180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>81318</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>87577</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>81304</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>83046</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>75385</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>76838</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>59736</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>61506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>40877</v>
       </c>
       <c r="C9">
@@ -8064,73 +8184,73 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>21160</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>21913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>26675</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>21131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>19483</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>17993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>17664</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>17561</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>15077</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>15306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>12318</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>12602</v>
       </c>
     </row>
     <row r="20" ht="41.4" spans="5:5">
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8159,170 +8279,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>93</v>
       </c>
     </row>
@@ -8337,7 +8457,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8347,233 +8467,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>-40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>-30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>-20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>150</v>
       </c>
     </row>
@@ -8589,6 +8709,902 @@
   <ignoredErrors>
     <ignoredError sqref="C1" listDataValidation="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="17.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F11" si="0">SUM(C2:E2)</f>
+        <v>213</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G11" si="1">AVERAGE(C2:E2)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1">
+        <v>77</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>68.6666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>76.6666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>77.6666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>79.6666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>80.6666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>72.1</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D2:D11)</f>
+        <v>73.7</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(E2:E11)</f>
+        <v>82.3</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F2:F11)</f>
+        <v>228.1</v>
+      </c>
+      <c r="G12">
+        <f>AVERAGE(G2:G11)</f>
+        <v>76.0333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1">
+        <v>77</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1">
+        <v>78</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1">
+        <v>73</v>
+      </c>
+      <c r="E7" s="1">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1">
+        <v>78</v>
+      </c>
+      <c r="E9" s="1">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="2">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>91</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2">
+        <v>92</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5">
+        <v>2002</v>
+      </c>
+      <c r="C5">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6">
+        <v>2003</v>
+      </c>
+      <c r="C6">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7">
+        <v>2004</v>
+      </c>
+      <c r="C7">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8">
+        <v>2005</v>
+      </c>
+      <c r="C8">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9">
+        <v>2006</v>
+      </c>
+      <c r="C9">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10">
+        <v>2007</v>
+      </c>
+      <c r="C10">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>2008</v>
+      </c>
+      <c r="C11">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>2009</v>
+      </c>
+      <c r="C12">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13">
+        <v>4010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -8639,50 +9655,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>12318</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>17664</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>19483</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>33947</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>59736</v>
       </c>
     </row>
@@ -8695,42 +9711,42 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>81304</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>141651</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>185107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>200312</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>216932</v>
       </c>
     </row>
@@ -8738,7 +9754,7 @@
       <c r="P16"/>
     </row>
     <row r="19" ht="27.6" spans="4:4">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8766,32 +9782,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="6">
         <v>2016</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>216932</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>230711</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>200312</v>
       </c>
       <c r="C3">
@@ -8799,65 +9815,65 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>141651</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>167180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>81318</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>87577</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>81304</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>83046</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>75385</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>76838</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>59736</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>61506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>40877</v>
       </c>
       <c r="C9">
@@ -8865,68 +9881,68 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>21160</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>21913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>26675</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>21131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>19483</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>17993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>17664</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>17561</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>15077</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>15306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>12318</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>12602</v>
       </c>
     </row>
@@ -8939,10 +9955,10 @@
       </c>
     </row>
     <row r="21" ht="110.4" spans="5:6">
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8994,16 +10010,16 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>11.22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J2">
@@ -9020,16 +10036,16 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>10.31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3">
@@ -9072,16 +10088,16 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>8.98</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J5">
@@ -9098,16 +10114,16 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>7.34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J6">
@@ -9124,16 +10140,16 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>7.29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J7">
@@ -9150,16 +10166,16 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>11.99</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J8">
@@ -9176,16 +10192,16 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>11.95</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J9">
@@ -9202,16 +10218,16 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>11.14</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -9228,16 +10244,16 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>11.08</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J11">
@@ -9254,16 +10270,16 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>10.97</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J12">
@@ -9280,16 +10296,16 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>10.95</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J13">
@@ -9306,16 +10322,16 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>10.26</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J14">
@@ -9332,16 +10348,16 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>9.82</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J15">
@@ -9358,16 +10374,16 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>9.18</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J16">
@@ -9384,16 +10400,16 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>9.16</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J17">
@@ -9410,16 +10426,16 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>20</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>8.82</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J18">
@@ -9436,16 +10452,16 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>8.36</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J19">
@@ -9462,16 +10478,16 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>8.31</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J20">
@@ -9488,16 +10504,16 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>7.75</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J21">
@@ -10147,22 +11163,22 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>17</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <f t="shared" ref="F2:F11" si="0">C2+D2+E2</f>
         <v>42</v>
       </c>
@@ -10183,22 +11199,22 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -10219,22 +11235,22 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>16</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -10255,22 +11271,22 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>15</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -10291,22 +11307,22 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>13</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -10327,22 +11343,22 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -10363,22 +11379,22 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -10399,22 +11415,22 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>9</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>15</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>10</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -10435,22 +11451,22 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>13</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>10</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -10471,22 +11487,22 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -10531,10 +11547,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
@@ -10542,10 +11558,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C2">
@@ -10554,10 +11570,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C3">
@@ -10566,10 +11582,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C4">
@@ -10578,10 +11594,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C5">
@@ -10590,10 +11606,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C6">
@@ -10602,10 +11618,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C7">
@@ -10614,10 +11630,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C8">
@@ -10626,10 +11642,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C9">
@@ -10638,10 +11654,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C10">
@@ -10650,10 +11666,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C11">
@@ -10662,10 +11678,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C12">
@@ -10674,10 +11690,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C13">
@@ -10686,10 +11702,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C14">
@@ -10698,10 +11714,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C15">
@@ -10710,10 +11726,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C16">

--- a/pandas_study/data/summary.xlsx
+++ b/pandas_study/data/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" tabRatio="735" firstSheet="7" activeTab="14"/>
+    <workbookView windowWidth="18468" windowHeight="9420" tabRatio="735" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="pie" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="average" sheetId="13" r:id="rId13"/>
     <sheet name="duplicated" sheetId="14" r:id="rId14"/>
     <sheet name="transform" sheetId="15" r:id="rId15"/>
+    <sheet name="线性拟合" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">filter!$A$1:$D$21</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="159">
   <si>
     <t>Field</t>
   </si>
@@ -543,19 +544,23 @@
   </si>
   <si>
     <t>Sep</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,13 +569,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -579,30 +578,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +625,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,37 +668,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,7 +692,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,19 +745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +799,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,133 +913,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,21 +936,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1000,6 +983,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1015,11 +1007,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,10 +1042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1056,141 +1054,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4312,6 +4312,480 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0621666666666667"/>
+          <c:y val="0.179861111111111"/>
+          <c:w val="0.882902777777778"/>
+          <c:h val="0.710972222222222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>线性拟合!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.211666666666667"/>
+                  <c:y val="0.0805555555555556"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>线性拟合!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\.mm</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>线性拟合!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.062</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.047</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.466</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="180852459"/>
+        <c:axId val="148096357"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="180852459"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\.mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148096357"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="148096357"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180852459"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4552,6 +5026,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -7594,6 +8108,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7805,6 +8835,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>185420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490220</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2981960" y="1193800"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8085,32 +9150,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="8">
         <v>2016</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="8">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>216932</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>230711</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>200312</v>
       </c>
       <c r="C3">
@@ -8118,65 +9183,65 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>141651</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>167180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>81318</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>87577</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>81304</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>83046</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>75385</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>76838</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>59736</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>61506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>40877</v>
       </c>
       <c r="C9">
@@ -8184,73 +9249,73 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>21160</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>21913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>26675</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>21131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>19483</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>17993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>17664</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>17561</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>15077</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>15306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>12318</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>12602</v>
       </c>
     </row>
     <row r="20" ht="41.4" spans="5:5">
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8279,170 +9344,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>93</v>
       </c>
     </row>
@@ -8467,233 +9532,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>-40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>-30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>-20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>150</v>
       </c>
     </row>
@@ -8727,10 +9792,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C1" t="s">
@@ -8738,10 +9803,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -8749,10 +9814,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C3" t="s">
@@ -8760,10 +9825,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C4" t="s">
@@ -8771,10 +9836,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C5" t="s">
@@ -8782,10 +9847,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C6" t="s">
@@ -8793,10 +9858,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
@@ -8804,10 +9869,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C8" t="s">
@@ -8815,10 +9880,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C9" t="s">
@@ -8826,10 +9891,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C10" t="s">
@@ -8837,10 +9902,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C11" t="s">
@@ -8869,274 +9934,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>55</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>68</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>90</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <f t="shared" ref="F2:F11" si="0">SUM(C2:E2)</f>
         <v>213</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <f t="shared" ref="G2:G11" si="1">AVERAGE(C2:E2)</f>
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>56</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>69</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>91</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>57</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>70</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>92</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>58</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>71</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>77</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>68.6666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>80</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>72</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>78</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>76.6666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>81</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>73</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>79</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>77.6666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>82</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>77</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>80</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>79.6666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>83</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>78</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>81</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>80.6666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>84</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>79</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>77</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>85</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>80</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>78</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -9187,256 +10252,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>55</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>68</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>90</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>56</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>69</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>91</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>57</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>70</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>92</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>58</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>71</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>77</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>80</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>72</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>78</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>81</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>73</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>79</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>82</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>77</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>80</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>83</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>78</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>81</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>84</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>79</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>77</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>85</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>80</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>78</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>55</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>68</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>90</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>56</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>69</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>91</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>57</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>70</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="5">
         <v>92</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9449,8 +10514,8 @@
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -9605,6 +10670,231 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B2">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B3">
+        <v>4.076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B4">
+        <v>13.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B5">
+        <v>6.929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B6">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B7">
+        <v>9.609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B8">
+        <v>22.746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B9">
+        <v>27.489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B10">
+        <v>17.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B11">
+        <v>17.22</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B12">
+        <v>15.156</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B13">
+        <v>39.026</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B14">
+        <v>18.739</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B15">
+        <v>29.785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B16">
+        <v>20.607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B17">
+        <v>35.445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B18">
+        <v>61.789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B19">
+        <v>57.702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B20">
+        <v>66.667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B21">
+        <v>38.202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B22">
+        <v>57.062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B23">
+        <v>56.047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B24">
+        <v>43.466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B25">
+        <v>59.057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9655,50 +10945,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>12318</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>17664</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>19483</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>33947</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>59736</v>
       </c>
     </row>
@@ -9711,42 +11001,42 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>81304</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>141651</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>185107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>200312</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>216932</v>
       </c>
     </row>
@@ -9754,7 +11044,7 @@
       <c r="P16"/>
     </row>
     <row r="19" ht="27.6" spans="4:4">
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9782,32 +11072,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="8">
         <v>2016</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="8">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>216932</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>230711</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>200312</v>
       </c>
       <c r="C3">
@@ -9815,65 +11105,65 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>141651</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>167180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>81318</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>87577</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>81304</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>83046</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>75385</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>76838</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>59736</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>61506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>40877</v>
       </c>
       <c r="C9">
@@ -9881,68 +11171,68 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>21160</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>21913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>26675</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>21131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>19483</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>17993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="7">
         <v>17664</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>17561</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>15077</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>15306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="7">
         <v>12318</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>12602</v>
       </c>
     </row>
@@ -9955,10 +11245,10 @@
       </c>
     </row>
     <row r="21" ht="110.4" spans="5:6">
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10010,16 +11300,16 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>11.22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J2">
@@ -10036,16 +11326,16 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>10.31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J3">
@@ -10088,16 +11378,16 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>8.98</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J5">
@@ -10114,16 +11404,16 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>7.34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J6">
@@ -10140,16 +11430,16 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>7.29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="J7">
@@ -10166,16 +11456,16 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>11.99</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J8">
@@ -10192,16 +11482,16 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>11.95</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J9">
@@ -10218,16 +11508,16 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>11.14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -10244,16 +11534,16 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>11.08</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J11">
@@ -10270,16 +11560,16 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="7">
         <v>10.97</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J12">
@@ -10296,16 +11586,16 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="7">
         <v>10.95</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J13">
@@ -10322,16 +11612,16 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <v>10.26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J14">
@@ -10348,16 +11638,16 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>9.82</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J15">
@@ -10374,16 +11664,16 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="7">
         <v>9.18</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J16">
@@ -10400,16 +11690,16 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="7">
         <v>9.16</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J17">
@@ -10426,16 +11716,16 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="7">
         <v>8.82</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J18">
@@ -10452,16 +11742,16 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="7">
         <v>8.36</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J19">
@@ -10478,16 +11768,16 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>11</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="7">
         <v>8.31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J20">
@@ -10504,16 +11794,16 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <v>7.75</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J21">
@@ -11163,22 +12453,22 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>14</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>17</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <f t="shared" ref="F2:F11" si="0">C2+D2+E2</f>
         <v>42</v>
       </c>
@@ -11199,22 +12489,22 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>12</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>17</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -11235,22 +12525,22 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>12</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -11271,22 +12561,22 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="7">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -11307,22 +12597,22 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>13</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -11343,22 +12633,22 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>16</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -11379,22 +12669,22 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>14</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -11415,22 +12705,22 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -11451,22 +12741,22 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>13</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -11487,22 +12777,22 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>15</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -11547,10 +12837,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
@@ -11558,10 +12848,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C2">
@@ -11570,10 +12860,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C3">
@@ -11582,10 +12872,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C4">
@@ -11594,10 +12884,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C5">
@@ -11606,10 +12896,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C6">
@@ -11618,10 +12908,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C7">
@@ -11630,10 +12920,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C8">
@@ -11642,10 +12932,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C9">
@@ -11654,10 +12944,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C10">
@@ -11666,10 +12956,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C11">
@@ -11678,10 +12968,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C12">
@@ -11690,10 +12980,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C13">
@@ -11702,10 +12992,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C14">
@@ -11714,10 +13004,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C15">
@@ -11726,10 +13016,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C16">

--- a/pandas_study/data/summary.xlsx
+++ b/pandas_study/data/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" tabRatio="735" firstSheet="8" activeTab="15"/>
+    <workbookView windowWidth="18468" windowHeight="9420" tabRatio="735" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="pie" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="duplicated" sheetId="14" r:id="rId14"/>
     <sheet name="transform" sheetId="15" r:id="rId15"/>
     <sheet name="线性拟合" sheetId="16" r:id="rId16"/>
+    <sheet name="color" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="18" r:id="rId18"/>
+    <sheet name="circle_squre" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">filter!$A$1:$D$21</definedName>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="165">
   <si>
     <t>Field</t>
   </si>
@@ -547,6 +550,24 @@
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>1 &lt; 60</t>
+  </si>
+  <si>
+    <t>每次考试的最高分</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Squre</t>
   </si>
 </sst>
 </file>
@@ -554,13 +575,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\.mm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,10 +598,94 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,54 +704,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,53 +728,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,13 +761,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +833,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,13 +917,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,151 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,20 +969,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +1017,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,47 +1054,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,10 +1070,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,146 +1082,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1255,6 +1285,52 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4358,17 +4434,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0621666666666667"/>
-          <c:y val="0.179861111111111"/>
-          <c:w val="0.882902777777778"/>
-          <c:h val="0.710972222222222"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -4427,8 +4493,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.211666666666667"/>
-                  <c:y val="0.0805555555555556"/>
+                  <c:x val="-0.373333333333333"/>
+                  <c:y val="0.00833333333333333"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -4631,16 +4697,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180852459"/>
-        <c:axId val="148096357"/>
+        <c:axId val="229892443"/>
+        <c:axId val="750260311"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180852459"/>
+        <c:axId val="229892443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="yyyy\.mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4677,12 +4757,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148096357"/>
+        <c:crossAx val="750260311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148096357"/>
+        <c:axId val="750260311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,7 +4818,403 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180852459"/>
+        <c:crossAx val="229892443"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>线性拟合!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.248333333333333"/>
+                  <c:y val="0.0277777777777778"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>线性拟合!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.076</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.785</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.789</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.062</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.047</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.466</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="162659479"/>
+        <c:axId val="360015239"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="162659479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="360015239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="360015239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="162659479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5066,6 +5542,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -8128,6 +8644,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8847,29 +9879,59 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>185420</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>490220</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2981960" y="1193800"/>
+        <a:off x="3858260" y="325120"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3843020" y="3395980"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9150,32 +10212,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="3">
         <v>2016</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="3">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>216932</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>230711</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>200312</v>
       </c>
       <c r="C3">
@@ -9183,65 +10245,65 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>141651</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>167180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>81318</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>87577</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>81304</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>83046</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>75385</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>76838</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>59736</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>61506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>40877</v>
       </c>
       <c r="C9">
@@ -9249,73 +10311,73 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>21160</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>21913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>26675</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>21131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>19483</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>17993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>17664</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>17561</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>15077</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>15306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>12318</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>12602</v>
       </c>
     </row>
     <row r="20" ht="41.4" spans="5:5">
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9344,170 +10406,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>93</v>
       </c>
     </row>
@@ -9532,233 +10594,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>-40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>-30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>-20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>150</v>
       </c>
     </row>
@@ -9792,10 +10854,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C1" t="s">
@@ -9803,10 +10865,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C2" t="s">
@@ -9814,10 +10876,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C3" t="s">
@@ -9825,10 +10887,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C4" t="s">
@@ -9836,10 +10898,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C5" t="s">
@@ -9847,10 +10909,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C6" t="s">
@@ -9858,10 +10920,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
@@ -9869,10 +10931,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C8" t="s">
@@ -9880,10 +10942,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C9" t="s">
@@ -9891,10 +10953,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C10" t="s">
@@ -9902,10 +10964,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C11" t="s">
@@ -9934,274 +10996,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>55</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>68</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>90</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <f t="shared" ref="F2:F11" si="0">SUM(C2:E2)</f>
         <v>213</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <f t="shared" ref="G2:G11" si="1">AVERAGE(C2:E2)</f>
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>56</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>69</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>91</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>57</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>70</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>92</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>58</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>71</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>77</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>68.6666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>80</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>72</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>78</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>76.6666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>81</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>73</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>79</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>77.6666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>82</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>77</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>80</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>79.6666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>83</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>78</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>81</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
         <v>80.6666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>84</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>79</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>77</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>85</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>80</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>78</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -10243,7 +11305,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A1" sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -10252,256 +11314,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>55</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>68</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>90</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>56</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>69</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>91</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>57</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>70</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>92</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>58</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>71</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>77</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>80</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>72</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>78</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>81</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>73</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>79</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>82</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>77</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>80</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>83</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>78</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>81</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>84</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>79</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>77</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>85</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>80</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>78</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>55</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>68</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>90</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>56</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>69</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>91</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>57</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>70</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>92</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10678,8 +11740,8 @@
   <sheetPr/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -10688,15 +11750,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
         <v>42736</v>
       </c>
       <c r="B2">
@@ -10704,7 +11766,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>42767</v>
       </c>
       <c r="B3">
@@ -10712,7 +11774,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>42795</v>
       </c>
       <c r="B4">
@@ -10720,7 +11782,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>42826</v>
       </c>
       <c r="B5">
@@ -10728,7 +11790,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>42856</v>
       </c>
       <c r="B6">
@@ -10736,7 +11798,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>42887</v>
       </c>
       <c r="B7">
@@ -10744,7 +11806,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>42917</v>
       </c>
       <c r="B8">
@@ -10752,7 +11814,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>42948</v>
       </c>
       <c r="B9">
@@ -10760,7 +11822,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>42979</v>
       </c>
       <c r="B10">
@@ -10768,43 +11830,43 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>43009</v>
       </c>
       <c r="B11">
         <v>17.22</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>43040</v>
       </c>
       <c r="B12">
         <v>15.156</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>43070</v>
       </c>
       <c r="B13">
         <v>39.026</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>43101</v>
       </c>
       <c r="B14">
         <v>18.739</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
         <v>43132</v>
       </c>
       <c r="B15">
@@ -10812,7 +11874,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <v>43160</v>
       </c>
       <c r="B16">
@@ -10820,7 +11882,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
         <v>43191</v>
       </c>
       <c r="B17">
@@ -10828,7 +11890,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <v>43221</v>
       </c>
       <c r="B18">
@@ -10836,7 +11898,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
         <v>43252</v>
       </c>
       <c r="B19">
@@ -10844,7 +11906,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
         <v>43282</v>
       </c>
       <c r="B20">
@@ -10852,7 +11914,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
         <v>43313</v>
       </c>
       <c r="B21">
@@ -10860,7 +11922,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
         <v>43344</v>
       </c>
       <c r="B22">
@@ -10868,7 +11930,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
         <v>43374</v>
       </c>
       <c r="B23">
@@ -10876,7 +11938,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
         <v>43405</v>
       </c>
       <c r="B24">
@@ -10884,7 +11946,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
         <v>43435</v>
       </c>
       <c r="B25">
@@ -10895,6 +11957,782 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="13" max="13" width="18.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="2">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="2">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2">
+        <v>69</v>
+      </c>
+      <c r="P3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="2">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2">
+        <v>70</v>
+      </c>
+      <c r="P4" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="2">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2">
+        <v>77</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="2">
+        <v>58</v>
+      </c>
+      <c r="O5" s="2">
+        <v>71</v>
+      </c>
+      <c r="P5" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="2">
+        <v>80</v>
+      </c>
+      <c r="O6" s="2">
+        <v>72</v>
+      </c>
+      <c r="P6" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2">
+        <v>79</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" s="2">
+        <v>81</v>
+      </c>
+      <c r="O7" s="2">
+        <v>73</v>
+      </c>
+      <c r="P7" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2">
+        <v>82</v>
+      </c>
+      <c r="D8" s="2">
+        <v>77</v>
+      </c>
+      <c r="E8" s="2">
+        <v>80</v>
+      </c>
+      <c r="L8" s="2">
+        <v>7</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2">
+        <v>82</v>
+      </c>
+      <c r="O8" s="2">
+        <v>77</v>
+      </c>
+      <c r="P8" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2">
+        <v>81</v>
+      </c>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="2">
+        <v>83</v>
+      </c>
+      <c r="O9" s="2">
+        <v>78</v>
+      </c>
+      <c r="P9" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2">
+        <v>84</v>
+      </c>
+      <c r="D10" s="2">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2">
+        <v>77</v>
+      </c>
+      <c r="L10" s="2">
+        <v>9</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="2">
+        <v>84</v>
+      </c>
+      <c r="O10" s="2">
+        <v>79</v>
+      </c>
+      <c r="P10" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>78</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="2">
+        <v>85</v>
+      </c>
+      <c r="O11" s="2">
+        <v>80</v>
+      </c>
+      <c r="P11" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="12:16">
+      <c r="L14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="12:16">
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="2">
+        <v>55</v>
+      </c>
+      <c r="O15" s="2">
+        <v>68</v>
+      </c>
+      <c r="P15" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="8:16">
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" s="2">
+        <v>56</v>
+      </c>
+      <c r="O16" s="2">
+        <v>69</v>
+      </c>
+      <c r="P16" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="2">
+        <v>57</v>
+      </c>
+      <c r="O17" s="2">
+        <v>70</v>
+      </c>
+      <c r="P17" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16">
+      <c r="L18" s="2">
+        <v>4</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" s="2">
+        <v>58</v>
+      </c>
+      <c r="O18" s="2">
+        <v>71</v>
+      </c>
+      <c r="P18" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16">
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="2">
+        <v>80</v>
+      </c>
+      <c r="O19" s="2">
+        <v>72</v>
+      </c>
+      <c r="P19" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16">
+      <c r="L20" s="2">
+        <v>6</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" s="2">
+        <v>81</v>
+      </c>
+      <c r="O20" s="2">
+        <v>73</v>
+      </c>
+      <c r="P20" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16">
+      <c r="L21" s="2">
+        <v>7</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="2">
+        <v>82</v>
+      </c>
+      <c r="O21" s="2">
+        <v>77</v>
+      </c>
+      <c r="P21" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16">
+      <c r="L22" s="2">
+        <v>8</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="2">
+        <v>83</v>
+      </c>
+      <c r="O22" s="2">
+        <v>78</v>
+      </c>
+      <c r="P22" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16">
+      <c r="L23" s="2">
+        <v>9</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="2">
+        <v>84</v>
+      </c>
+      <c r="O23" s="2">
+        <v>79</v>
+      </c>
+      <c r="P23" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16">
+      <c r="L24" s="2">
+        <v>10</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" s="2">
+        <v>85</v>
+      </c>
+      <c r="O24" s="2">
+        <v>80</v>
+      </c>
+      <c r="P24" s="2">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="top10" dxfId="0" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="top10" dxfId="1" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E11">
+    <cfRule type="top10" dxfId="1" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E11">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:P11">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{da6075c1-f266-4425-a117-354ec5c09e5c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:P24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{da6075c1-f266-4425-a117-354ec5c09e5c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N1:P11</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D6" si="0">SQRT(POWER(B2,2)+POWER(C2,2))/2</f>
+        <v>5.65685424949238</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E6" si="1">POWER(D2,2)*PI()</f>
+        <v>100.530964914873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>4.92442890089805</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="1"/>
+        <v>76.1836218495525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.30116263352131</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>58.1194640914112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.60555127546399</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>40.8407044966673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.65685424949238</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>100.530964914873</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -10945,50 +12783,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>12318</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>17664</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>19483</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>33947</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>59736</v>
       </c>
     </row>
@@ -11001,42 +12839,42 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>81304</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>141651</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>185107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>200312</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>216932</v>
       </c>
     </row>
@@ -11044,7 +12882,7 @@
       <c r="P16"/>
     </row>
     <row r="19" ht="27.6" spans="4:4">
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11072,32 +12910,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="3">
         <v>2016</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="3">
         <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>216932</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>230711</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>200312</v>
       </c>
       <c r="C3">
@@ -11105,65 +12943,65 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>141651</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>167180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>81318</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>87577</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>81304</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>83046</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>75385</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>76838</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>59736</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>61506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>40877</v>
       </c>
       <c r="C9">
@@ -11171,68 +13009,68 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>21160</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>21913</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>26675</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>21131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>19483</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>17993</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>17664</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>17561</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>15077</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>15306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>12318</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>12602</v>
       </c>
     </row>
@@ -11245,10 +13083,10 @@
       </c>
     </row>
     <row r="21" ht="110.4" spans="5:6">
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11300,16 +13138,16 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>11.22</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J2">
@@ -11326,16 +13164,16 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>10.31</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J3">
@@ -11378,16 +13216,16 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>8.98</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J5">
@@ -11404,16 +13242,16 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>7.34</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J6">
@@ -11430,16 +13268,16 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>7.29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J7">
@@ -11456,16 +13294,16 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>11.99</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J8">
@@ -11482,16 +13320,16 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7">
+      <c r="A9" s="10">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>11.95</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J9">
@@ -11508,16 +13346,16 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>11.14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -11534,16 +13372,16 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>11.08</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J11">
@@ -11560,16 +13398,16 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="7">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="10">
         <v>10.97</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J12">
@@ -11586,16 +13424,16 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="7">
+      <c r="A13" s="10">
         <v>19</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="10">
         <v>10.95</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J13">
@@ -11612,16 +13450,16 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>10.26</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J14">
@@ -11638,16 +13476,16 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="7">
+      <c r="A15" s="10">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="10">
         <v>9.82</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J15">
@@ -11664,16 +13502,16 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="7">
+      <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="10">
         <v>9.18</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J16">
@@ -11690,16 +13528,16 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="7">
+      <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="10">
         <v>9.16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J17">
@@ -11716,16 +13554,16 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="7">
+      <c r="A18" s="10">
         <v>20</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="10">
         <v>8.82</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J18">
@@ -11742,16 +13580,16 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="7">
+      <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="10">
         <v>8.36</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J19">
@@ -11768,16 +13606,16 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="7">
+      <c r="A20" s="10">
         <v>11</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="10">
         <v>8.31</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J20">
@@ -11794,16 +13632,16 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="7">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="10">
         <v>7.75</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="J21">
@@ -12453,22 +14291,22 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>11</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>14</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>17</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <f t="shared" ref="F2:F11" si="0">C2+D2+E2</f>
         <v>42</v>
       </c>
@@ -12489,22 +14327,22 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>17</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -12525,22 +14363,22 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>16</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -12561,22 +14399,22 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>11</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>15</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -12597,22 +14435,22 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="10">
         <v>13</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -12633,22 +14471,22 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>11</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>16</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -12669,22 +14507,22 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="10">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -12705,22 +14543,22 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="7">
+      <c r="A9" s="10">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>9</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>15</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="10">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -12741,22 +14579,22 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>13</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="10">
         <v>10</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -12777,22 +14615,22 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>15</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="10">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -12837,10 +14675,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" t="s">
@@ -12848,10 +14686,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C2">
@@ -12860,10 +14698,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C3">
@@ -12872,10 +14710,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C4">
@@ -12884,10 +14722,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C5">
@@ -12896,10 +14734,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C6">
@@ -12908,10 +14746,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C7">
@@ -12920,10 +14758,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C8">
@@ -12932,10 +14770,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C9">
@@ -12944,10 +14782,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C10">
@@ -12956,10 +14794,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C11">
@@ -12968,10 +14806,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C12">
@@ -12980,10 +14818,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C13">
@@ -12992,10 +14830,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C14">
@@ -13004,10 +14842,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C15">
@@ -13016,10 +14854,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>29</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C16">
